--- a/Fall2024/CS5567-0002/Project3/Results.xlsx
+++ b/Fall2024/CS5567-0002/Project3/Results.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasjones/workspace/UMKC/Fall2024/CS5567-0002/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED162D-E01B-CA43-8C24-494A4A90BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773BCF1-BCB7-0440-8DFF-8E0C83B07459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56920" yWindow="3640" windowWidth="33760" windowHeight="19500" xr2:uid="{9D4AA682-3B5E-4C4B-9EA7-E96CFE078581}"/>
+    <workbookView xWindow="73980" yWindow="4580" windowWidth="23620" windowHeight="19500" activeTab="1" xr2:uid="{9D4AA682-3B5E-4C4B-9EA7-E96CFE078581}"/>
   </bookViews>
   <sheets>
     <sheet name="YOLO" sheetId="1" r:id="rId1"/>
-    <sheet name="UNet" sheetId="2" r:id="rId2"/>
-    <sheet name="Seg" sheetId="3" r:id="rId3"/>
+    <sheet name="YOLOTrn" sheetId="4" r:id="rId2"/>
+    <sheet name="UNet" sheetId="2" r:id="rId3"/>
+    <sheet name="Seg" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="results" localSheetId="1">YOLOTrn!$A$1:$O$61</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +41,34 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{EB485BED-372F-594A-A8EA-26EA91E35DC9}" name="results" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/thomasjones/workspace/UMKC/Fall2024/CS5567-0002/Project3/Part A/runs/detect/train/results.csv" tab="0" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Run</t>
   </si>
@@ -125,6 +155,51 @@
   </si>
   <si>
     <t>Validation Dice</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>train/box_loss</t>
+  </si>
+  <si>
+    <t>train/cls_loss</t>
+  </si>
+  <si>
+    <t>train/dfl_loss</t>
+  </si>
+  <si>
+    <t>metrics/precision(B)</t>
+  </si>
+  <si>
+    <t>metrics/recall(B)</t>
+  </si>
+  <si>
+    <t>metrics/mAP50(B)</t>
+  </si>
+  <si>
+    <t>metrics/mAP50-95(B)</t>
+  </si>
+  <si>
+    <t>val/box_loss</t>
+  </si>
+  <si>
+    <t>val/cls_loss</t>
+  </si>
+  <si>
+    <t>val/dfl_loss</t>
+  </si>
+  <si>
+    <t>lr/pg0</t>
+  </si>
+  <si>
+    <t>lr/pg1</t>
+  </si>
+  <si>
+    <t>lr/pg2</t>
   </si>
 </sst>
 </file>
@@ -160,11 +235,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +256,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="results" connectionId="1" xr16:uid="{B90F0CF8-278C-0347-AA3D-3D6226A46AB9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577149B1-03D3-194A-9DEE-AB7D02271348}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,10 +702,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4">
-        <v>0.96299999999999997</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="I4">
-        <v>0.83399999999999996</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -721,6 +801,2902 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC9C5F4-E80A-2847-96C1-EFA0BF26C74A}">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>180.22200000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.84863999999999995</v>
+      </c>
+      <c r="D2">
+        <v>2.89568</v>
+      </c>
+      <c r="E2">
+        <v>1.16554</v>
+      </c>
+      <c r="F2">
+        <v>0.19001999999999999</v>
+      </c>
+      <c r="G2">
+        <v>5.2339999999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.8700000000000002E-3</v>
+      </c>
+      <c r="J2">
+        <v>2.0427300000000002</v>
+      </c>
+      <c r="K2">
+        <v>7.2814100000000002</v>
+      </c>
+      <c r="L2">
+        <v>3.9054600000000002</v>
+      </c>
+      <c r="M2">
+        <v>6.7916699999999997E-2</v>
+      </c>
+      <c r="N2">
+        <v>6.5476200000000003E-4</v>
+      </c>
+      <c r="O2">
+        <v>6.5476200000000003E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>393.29399999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.83503000000000005</v>
+      </c>
+      <c r="D3">
+        <v>2.0352999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.13876</v>
+      </c>
+      <c r="F3">
+        <v>0.92532999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.3640000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.8070000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.5270000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.55969</v>
+      </c>
+      <c r="K3">
+        <v>4.59877</v>
+      </c>
+      <c r="L3">
+        <v>2.5535899999999998</v>
+      </c>
+      <c r="M3">
+        <v>3.5228200000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.29962E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.29962E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>847.24699999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="D4">
+        <v>1.86575</v>
+      </c>
+      <c r="E4">
+        <v>1.1337900000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.29550999999999999</v>
+      </c>
+      <c r="G4">
+        <v>4.895E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.8330000000000003E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.206E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.23973</v>
+      </c>
+      <c r="K4">
+        <v>32.053800000000003</v>
+      </c>
+      <c r="L4">
+        <v>1.72407</v>
+      </c>
+      <c r="M4">
+        <v>2.5177300000000001E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.92249E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.92249E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1289.1300000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.81830999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1.7623599999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.1241699999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.11676</v>
+      </c>
+      <c r="G5">
+        <v>0.10217</v>
+      </c>
+      <c r="H5">
+        <v>6.5530000000000005E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.6909999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.1816599999999999</v>
+      </c>
+      <c r="K5">
+        <v>6.2942400000000003</v>
+      </c>
+      <c r="L5">
+        <v>1.7536700000000001</v>
+      </c>
+      <c r="M5">
+        <v>1.9009999999999999E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.9009999999999999E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.9009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1705.2</v>
+      </c>
+      <c r="C6">
+        <v>0.78744000000000003</v>
+      </c>
+      <c r="D6">
+        <v>1.6526099999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.1040300000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.28877000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.33866000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.27617999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.20463000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.87924999999999998</v>
+      </c>
+      <c r="K6">
+        <v>2.3277899999999998</v>
+      </c>
+      <c r="L6">
+        <v>1.2656799999999999</v>
+      </c>
+      <c r="M6">
+        <v>1.8680000000000001E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.8680000000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>1.8680000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2115.1</v>
+      </c>
+      <c r="C7">
+        <v>0.77822999999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.5883</v>
+      </c>
+      <c r="E7">
+        <v>1.0994299999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.33037</v>
+      </c>
+      <c r="G7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.34227000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.27106999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.753</v>
+      </c>
+      <c r="K7">
+        <v>1.71496</v>
+      </c>
+      <c r="L7">
+        <v>1.1306499999999999</v>
+      </c>
+      <c r="M7">
+        <v>1.835E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.835E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.835E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2505.79</v>
+      </c>
+      <c r="C8">
+        <v>0.74872000000000005</v>
+      </c>
+      <c r="D8">
+        <v>1.4840199999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.07325</v>
+      </c>
+      <c r="F8">
+        <v>0.40262999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.57272000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.52466000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.41677999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.78329000000000004</v>
+      </c>
+      <c r="K8">
+        <v>1.5624</v>
+      </c>
+      <c r="L8">
+        <v>1.1576599999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.802E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.802E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.802E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2846.62</v>
+      </c>
+      <c r="C9">
+        <v>0.73458999999999997</v>
+      </c>
+      <c r="D9">
+        <v>1.4113899999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.0604100000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.32589000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.58828000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.45506000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.36294999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.72713000000000005</v>
+      </c>
+      <c r="K9">
+        <v>1.59748</v>
+      </c>
+      <c r="L9">
+        <v>1.11113</v>
+      </c>
+      <c r="M9">
+        <v>1.769E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.769E-3</v>
+      </c>
+      <c r="O9">
+        <v>1.769E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3238.6</v>
+      </c>
+      <c r="C10">
+        <v>0.72843999999999998</v>
+      </c>
+      <c r="D10">
+        <v>1.32626</v>
+      </c>
+      <c r="E10">
+        <v>1.0571900000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.55611999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.59984000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.61463000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.50673000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.72031000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.4106300000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.07684</v>
+      </c>
+      <c r="M10">
+        <v>1.7359999999999999E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.7359999999999999E-3</v>
+      </c>
+      <c r="O10">
+        <v>1.7359999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3579.06</v>
+      </c>
+      <c r="C11">
+        <v>0.71347000000000005</v>
+      </c>
+      <c r="D11">
+        <v>1.2572000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.05681</v>
+      </c>
+      <c r="F11">
+        <v>0.56503000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.62346999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.52844999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.74643000000000004</v>
+      </c>
+      <c r="K11">
+        <v>1.4043399999999999</v>
+      </c>
+      <c r="L11">
+        <v>1.14289</v>
+      </c>
+      <c r="M11">
+        <v>1.7030000000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>1.7030000000000001E-3</v>
+      </c>
+      <c r="O11">
+        <v>1.7030000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3920.03</v>
+      </c>
+      <c r="C12">
+        <v>0.70021999999999995</v>
+      </c>
+      <c r="D12">
+        <v>1.1888099999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.0460499999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.59875</v>
+      </c>
+      <c r="G12">
+        <v>0.54234000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.59794999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.48927999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.69008000000000003</v>
+      </c>
+      <c r="K12">
+        <v>1.4698100000000001</v>
+      </c>
+      <c r="L12">
+        <v>1.0779099999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.67E-3</v>
+      </c>
+      <c r="N12">
+        <v>1.67E-3</v>
+      </c>
+      <c r="O12">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4273.71</v>
+      </c>
+      <c r="C13">
+        <v>0.68169999999999997</v>
+      </c>
+      <c r="D13">
+        <v>1.12249</v>
+      </c>
+      <c r="E13">
+        <v>1.0391999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.61995999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.64085000000000003</v>
+      </c>
+      <c r="J13">
+        <v>0.66542000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.89932000000000001</v>
+      </c>
+      <c r="L13">
+        <v>1.0486800000000001</v>
+      </c>
+      <c r="M13">
+        <v>1.637E-3</v>
+      </c>
+      <c r="N13">
+        <v>1.637E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.637E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4591.4799999999996</v>
+      </c>
+      <c r="C14">
+        <v>0.68581999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.0765499999999999</v>
+      </c>
+      <c r="E14">
+        <v>1.0363899999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.78330999999999995</v>
+      </c>
+      <c r="G14">
+        <v>0.68330999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.78081</v>
+      </c>
+      <c r="I14">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.69386000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.99243999999999999</v>
+      </c>
+      <c r="L14">
+        <v>1.0705199999999999</v>
+      </c>
+      <c r="M14">
+        <v>1.604E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.604E-3</v>
+      </c>
+      <c r="O14">
+        <v>1.604E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4914.54</v>
+      </c>
+      <c r="C15">
+        <v>0.67418999999999996</v>
+      </c>
+      <c r="D15">
+        <v>1.0361899999999999</v>
+      </c>
+      <c r="E15">
+        <v>1.0299700000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.74251999999999996</v>
+      </c>
+      <c r="G15">
+        <v>0.70918999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="I15">
+        <v>0.66351000000000004</v>
+      </c>
+      <c r="J15">
+        <v>0.68042999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.91229000000000005</v>
+      </c>
+      <c r="L15">
+        <v>1.05332</v>
+      </c>
+      <c r="M15">
+        <v>1.5709999999999999E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.5709999999999999E-3</v>
+      </c>
+      <c r="O15">
+        <v>1.5709999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5258.83</v>
+      </c>
+      <c r="C16">
+        <v>0.66708999999999996</v>
+      </c>
+      <c r="D16">
+        <v>1.00945</v>
+      </c>
+      <c r="E16">
+        <v>1.0236400000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.82323999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.73138999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.81720999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.67827999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.69862000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="L16">
+        <v>1.0725199999999999</v>
+      </c>
+      <c r="M16">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="N16">
+        <v>1.5380000000000001E-3</v>
+      </c>
+      <c r="O16">
+        <v>1.5380000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5589.24</v>
+      </c>
+      <c r="C17">
+        <v>0.68522000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.99573</v>
+      </c>
+      <c r="E17">
+        <v>1.02979</v>
+      </c>
+      <c r="F17">
+        <v>0.83301999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.74241000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.83162999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.69747000000000003</v>
+      </c>
+      <c r="J17">
+        <v>0.66063000000000005</v>
+      </c>
+      <c r="K17">
+        <v>0.74594000000000005</v>
+      </c>
+      <c r="L17">
+        <v>1.03884</v>
+      </c>
+      <c r="M17">
+        <v>1.505E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.505E-3</v>
+      </c>
+      <c r="O17">
+        <v>1.505E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5915.95</v>
+      </c>
+      <c r="C18">
+        <v>0.65961999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.93523999999999996</v>
+      </c>
+      <c r="E18">
+        <v>1.0256400000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.70394000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.8014</v>
+      </c>
+      <c r="I18">
+        <v>0.67278000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="K18">
+        <v>0.80730999999999997</v>
+      </c>
+      <c r="L18">
+        <v>1.0545199999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.472E-3</v>
+      </c>
+      <c r="N18">
+        <v>1.472E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.472E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6259.46</v>
+      </c>
+      <c r="C19">
+        <v>0.65156999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="E19">
+        <v>1.01942</v>
+      </c>
+      <c r="F19">
+        <v>0.86329</v>
+      </c>
+      <c r="G19">
+        <v>0.75412999999999997</v>
+      </c>
+      <c r="H19">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.72091000000000005</v>
+      </c>
+      <c r="J19">
+        <v>0.64549000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.66671000000000002</v>
+      </c>
+      <c r="L19">
+        <v>1.0200199999999999</v>
+      </c>
+      <c r="M19">
+        <v>1.439E-3</v>
+      </c>
+      <c r="N19">
+        <v>1.439E-3</v>
+      </c>
+      <c r="O19">
+        <v>1.439E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6598.19</v>
+      </c>
+      <c r="C20">
+        <v>0.65656000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.92796000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.02203</v>
+      </c>
+      <c r="F20">
+        <v>0.89029000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.75255000000000005</v>
+      </c>
+      <c r="H20">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.72714000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.66318999999999995</v>
+      </c>
+      <c r="L20">
+        <v>1.00929</v>
+      </c>
+      <c r="M20">
+        <v>1.4059999999999999E-3</v>
+      </c>
+      <c r="N20">
+        <v>1.4059999999999999E-3</v>
+      </c>
+      <c r="O20">
+        <v>1.4059999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6950.14</v>
+      </c>
+      <c r="C21">
+        <v>0.64261999999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>1.0154300000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.90542</v>
+      </c>
+      <c r="G21">
+        <v>0.74602000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.86855000000000004</v>
+      </c>
+      <c r="I21">
+        <v>0.73763999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.61453000000000002</v>
+      </c>
+      <c r="K21">
+        <v>0.63375999999999999</v>
+      </c>
+      <c r="L21">
+        <v>1.0005900000000001</v>
+      </c>
+      <c r="M21">
+        <v>1.3730000000000001E-3</v>
+      </c>
+      <c r="N21">
+        <v>1.3730000000000001E-3</v>
+      </c>
+      <c r="O21">
+        <v>1.3730000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7302.66</v>
+      </c>
+      <c r="C22">
+        <v>0.63402999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.88010999999999995</v>
+      </c>
+      <c r="E22">
+        <v>1.0057199999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="G22">
+        <v>0.76671</v>
+      </c>
+      <c r="H22">
+        <v>0.86255000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.73392999999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.60343999999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.65963000000000005</v>
+      </c>
+      <c r="L22">
+        <v>0.99424000000000001</v>
+      </c>
+      <c r="M22">
+        <v>1.34E-3</v>
+      </c>
+      <c r="N22">
+        <v>1.34E-3</v>
+      </c>
+      <c r="O22">
+        <v>1.34E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7629.76</v>
+      </c>
+      <c r="C23">
+        <v>0.63399000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.85734999999999995</v>
+      </c>
+      <c r="E23">
+        <v>1.0112000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.90663000000000005</v>
+      </c>
+      <c r="G23">
+        <v>0.76837</v>
+      </c>
+      <c r="H23">
+        <v>0.87478999999999996</v>
+      </c>
+      <c r="I23">
+        <v>0.74402999999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.59633999999999998</v>
+      </c>
+      <c r="K23">
+        <v>0.60080999999999996</v>
+      </c>
+      <c r="L23">
+        <v>0.98804000000000003</v>
+      </c>
+      <c r="M23">
+        <v>1.307E-3</v>
+      </c>
+      <c r="N23">
+        <v>1.307E-3</v>
+      </c>
+      <c r="O23">
+        <v>1.307E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7970.51</v>
+      </c>
+      <c r="C24">
+        <v>0.61994000000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="E24">
+        <v>1.0045200000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.90036000000000005</v>
+      </c>
+      <c r="G24">
+        <v>0.77698999999999996</v>
+      </c>
+      <c r="H24">
+        <v>0.87646999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.72575000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.65031000000000005</v>
+      </c>
+      <c r="K24">
+        <v>0.59891000000000005</v>
+      </c>
+      <c r="L24">
+        <v>1.0361400000000001</v>
+      </c>
+      <c r="M24">
+        <v>1.274E-3</v>
+      </c>
+      <c r="N24">
+        <v>1.274E-3</v>
+      </c>
+      <c r="O24">
+        <v>1.274E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8307.06</v>
+      </c>
+      <c r="C25">
+        <v>0.61787999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.80530999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.99951000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.88665000000000005</v>
+      </c>
+      <c r="G25">
+        <v>0.75156999999999996</v>
+      </c>
+      <c r="H25">
+        <v>0.85784000000000005</v>
+      </c>
+      <c r="I25">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.62602999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.63576999999999995</v>
+      </c>
+      <c r="L25">
+        <v>1.01129</v>
+      </c>
+      <c r="M25">
+        <v>1.2409999999999999E-3</v>
+      </c>
+      <c r="N25">
+        <v>1.2409999999999999E-3</v>
+      </c>
+      <c r="O25">
+        <v>1.2409999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8630.4</v>
+      </c>
+      <c r="C26">
+        <v>0.60977000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.80417000000000005</v>
+      </c>
+      <c r="E26">
+        <v>0.99816000000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.91446000000000005</v>
+      </c>
+      <c r="G26">
+        <v>0.81301999999999996</v>
+      </c>
+      <c r="H26">
+        <v>0.90698999999999996</v>
+      </c>
+      <c r="I26">
+        <v>0.76222999999999996</v>
+      </c>
+      <c r="J26">
+        <v>0.61995</v>
+      </c>
+      <c r="K26">
+        <v>0.52456999999999998</v>
+      </c>
+      <c r="L26">
+        <v>0.98784000000000005</v>
+      </c>
+      <c r="M26">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="N26">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="O26">
+        <v>1.2080000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8962.66</v>
+      </c>
+      <c r="C27">
+        <v>0.61468999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.79505000000000003</v>
+      </c>
+      <c r="E27">
+        <v>0.99961999999999995</v>
+      </c>
+      <c r="F27">
+        <v>0.91071999999999997</v>
+      </c>
+      <c r="G27">
+        <v>0.81628999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.76436000000000004</v>
+      </c>
+      <c r="J27">
+        <v>0.59457000000000004</v>
+      </c>
+      <c r="K27">
+        <v>0.53993000000000002</v>
+      </c>
+      <c r="L27">
+        <v>0.98843000000000003</v>
+      </c>
+      <c r="M27">
+        <v>1.175E-3</v>
+      </c>
+      <c r="N27">
+        <v>1.175E-3</v>
+      </c>
+      <c r="O27">
+        <v>1.175E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9280.57</v>
+      </c>
+      <c r="C28">
+        <v>0.60789000000000004</v>
+      </c>
+      <c r="D28">
+        <v>0.78886000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.99731999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.89363999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.82381000000000004</v>
+      </c>
+      <c r="H28">
+        <v>0.89234000000000002</v>
+      </c>
+      <c r="I28">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.63132999999999995</v>
+      </c>
+      <c r="K28">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="L28">
+        <v>1.01278</v>
+      </c>
+      <c r="M28">
+        <v>1.142E-3</v>
+      </c>
+      <c r="N28">
+        <v>1.142E-3</v>
+      </c>
+      <c r="O28">
+        <v>1.142E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9588.51</v>
+      </c>
+      <c r="C29">
+        <v>0.61051999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.7873</v>
+      </c>
+      <c r="E29">
+        <v>0.99551999999999996</v>
+      </c>
+      <c r="F29">
+        <v>0.93674999999999997</v>
+      </c>
+      <c r="G29">
+        <v>0.76117999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="J29">
+        <v>0.64781999999999995</v>
+      </c>
+      <c r="K29">
+        <v>0.58048999999999995</v>
+      </c>
+      <c r="L29">
+        <v>1.0272600000000001</v>
+      </c>
+      <c r="M29">
+        <v>1.109E-3</v>
+      </c>
+      <c r="N29">
+        <v>1.109E-3</v>
+      </c>
+      <c r="O29">
+        <v>1.109E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>9907.89</v>
+      </c>
+      <c r="C30">
+        <v>0.59055000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.7752</v>
+      </c>
+      <c r="E30">
+        <v>0.98965000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.91893999999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.81505000000000005</v>
+      </c>
+      <c r="H30">
+        <v>0.90041000000000004</v>
+      </c>
+      <c r="I30">
+        <v>0.75734999999999997</v>
+      </c>
+      <c r="J30">
+        <v>0.61928000000000005</v>
+      </c>
+      <c r="K30">
+        <v>0.54793999999999998</v>
+      </c>
+      <c r="L30">
+        <v>1.0009300000000001</v>
+      </c>
+      <c r="M30">
+        <v>1.0759999999999999E-3</v>
+      </c>
+      <c r="N30">
+        <v>1.0759999999999999E-3</v>
+      </c>
+      <c r="O30">
+        <v>1.0759999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10231.4</v>
+      </c>
+      <c r="C31">
+        <v>0.59343000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.77712999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.99153000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.91317000000000004</v>
+      </c>
+      <c r="G31">
+        <v>0.80911</v>
+      </c>
+      <c r="H31">
+        <v>0.90178000000000003</v>
+      </c>
+      <c r="I31">
+        <v>0.75536000000000003</v>
+      </c>
+      <c r="J31">
+        <v>0.61253999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.51</v>
+      </c>
+      <c r="L31">
+        <v>1.00528</v>
+      </c>
+      <c r="M31">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="O31">
+        <v>1.0430000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10564</v>
+      </c>
+      <c r="C32">
+        <v>0.60043000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.73904000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.99006000000000005</v>
+      </c>
+      <c r="F32">
+        <v>0.92581000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.87214999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.93186999999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.78407000000000004</v>
+      </c>
+      <c r="J32">
+        <v>0.59480999999999995</v>
+      </c>
+      <c r="K32">
+        <v>0.46306999999999998</v>
+      </c>
+      <c r="L32">
+        <v>0.97836999999999996</v>
+      </c>
+      <c r="M32">
+        <v>1.01E-3</v>
+      </c>
+      <c r="N32">
+        <v>1.01E-3</v>
+      </c>
+      <c r="O32">
+        <v>1.01E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10889.3</v>
+      </c>
+      <c r="C33">
+        <v>0.59236</v>
+      </c>
+      <c r="D33">
+        <v>0.74289000000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.98250999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.92484</v>
+      </c>
+      <c r="G33">
+        <v>0.83955000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.92452000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.78252999999999995</v>
+      </c>
+      <c r="J33">
+        <v>0.59738000000000002</v>
+      </c>
+      <c r="K33">
+        <v>0.48021999999999998</v>
+      </c>
+      <c r="L33">
+        <v>0.98024999999999995</v>
+      </c>
+      <c r="M33">
+        <v>9.77E-4</v>
+      </c>
+      <c r="N33">
+        <v>9.77E-4</v>
+      </c>
+      <c r="O33">
+        <v>9.77E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>11214.7</v>
+      </c>
+      <c r="C34">
+        <v>0.59299000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.72453999999999996</v>
+      </c>
+      <c r="E34">
+        <v>0.98917999999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.92730999999999997</v>
+      </c>
+      <c r="G34">
+        <v>0.81196000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.90390999999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.76595000000000002</v>
+      </c>
+      <c r="J34">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="K34">
+        <v>0.50394000000000005</v>
+      </c>
+      <c r="L34">
+        <v>0.98004000000000002</v>
+      </c>
+      <c r="M34">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="N34">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="O34">
+        <v>9.4399999999999996E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>11541.5</v>
+      </c>
+      <c r="C35">
+        <v>0.58233000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.71362999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.98685999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.91081999999999996</v>
+      </c>
+      <c r="G35">
+        <v>0.84489000000000003</v>
+      </c>
+      <c r="H35">
+        <v>0.92388000000000003</v>
+      </c>
+      <c r="I35">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="J35">
+        <v>0.59911000000000003</v>
+      </c>
+      <c r="K35">
+        <v>0.45039000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.98153000000000001</v>
+      </c>
+      <c r="M35">
+        <v>9.1100000000000003E-4</v>
+      </c>
+      <c r="N35">
+        <v>9.1100000000000003E-4</v>
+      </c>
+      <c r="O35">
+        <v>9.1100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>11878.8</v>
+      </c>
+      <c r="C36">
+        <v>0.57321</v>
+      </c>
+      <c r="D36">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.98287000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.94316</v>
+      </c>
+      <c r="G36">
+        <v>0.84284999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.93074000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.79374</v>
+      </c>
+      <c r="J36">
+        <v>0.58074999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.42616999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.97287999999999997</v>
+      </c>
+      <c r="M36">
+        <v>8.7799999999999998E-4</v>
+      </c>
+      <c r="N36">
+        <v>8.7799999999999998E-4</v>
+      </c>
+      <c r="O36">
+        <v>8.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>12265.8</v>
+      </c>
+      <c r="C37">
+        <v>0.58255999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.69105000000000005</v>
+      </c>
+      <c r="E37">
+        <v>0.9819</v>
+      </c>
+      <c r="F37">
+        <v>0.90617000000000003</v>
+      </c>
+      <c r="G37">
+        <v>0.83977000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.92066000000000003</v>
+      </c>
+      <c r="I37">
+        <v>0.78532000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.46512999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0.96796000000000004</v>
+      </c>
+      <c r="M37">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="N37">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="O37">
+        <v>8.4500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>12665</v>
+      </c>
+      <c r="C38">
+        <v>0.57945999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="E38">
+        <v>0.98480999999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.92371999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.84186000000000005</v>
+      </c>
+      <c r="H38">
+        <v>0.92257</v>
+      </c>
+      <c r="I38">
+        <v>0.78168000000000004</v>
+      </c>
+      <c r="J38">
+        <v>0.59147000000000005</v>
+      </c>
+      <c r="K38">
+        <v>0.46022999999999997</v>
+      </c>
+      <c r="L38">
+        <v>0.97341999999999995</v>
+      </c>
+      <c r="M38">
+        <v>8.12E-4</v>
+      </c>
+      <c r="N38">
+        <v>8.12E-4</v>
+      </c>
+      <c r="O38">
+        <v>8.12E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>13069.7</v>
+      </c>
+      <c r="C39">
+        <v>0.58589000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.70689000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.98294999999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.93018000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.88841000000000003</v>
+      </c>
+      <c r="H39">
+        <v>0.93803000000000003</v>
+      </c>
+      <c r="I39">
+        <v>0.79147000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.57447999999999999</v>
+      </c>
+      <c r="K39">
+        <v>0.40395999999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.97326000000000001</v>
+      </c>
+      <c r="M39">
+        <v>7.7899999999999996E-4</v>
+      </c>
+      <c r="N39">
+        <v>7.7899999999999996E-4</v>
+      </c>
+      <c r="O39">
+        <v>7.7899999999999996E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13471.3</v>
+      </c>
+      <c r="C40">
+        <v>0.58055000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.67842999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.93594999999999995</v>
+      </c>
+      <c r="G40">
+        <v>0.86502999999999997</v>
+      </c>
+      <c r="H40">
+        <v>0.93833999999999995</v>
+      </c>
+      <c r="I40">
+        <v>0.80118999999999996</v>
+      </c>
+      <c r="J40">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="K40">
+        <v>0.40738999999999997</v>
+      </c>
+      <c r="L40">
+        <v>0.96555000000000002</v>
+      </c>
+      <c r="M40">
+        <v>7.4600000000000003E-4</v>
+      </c>
+      <c r="N40">
+        <v>7.4600000000000003E-4</v>
+      </c>
+      <c r="O40">
+        <v>7.4600000000000003E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>13885.4</v>
+      </c>
+      <c r="C41">
+        <v>0.56449000000000005</v>
+      </c>
+      <c r="D41">
+        <v>0.66898999999999997</v>
+      </c>
+      <c r="E41">
+        <v>0.97843000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="G41">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="H41">
+        <v>0.93066000000000004</v>
+      </c>
+      <c r="I41">
+        <v>0.79635</v>
+      </c>
+      <c r="J41">
+        <v>0.56686000000000003</v>
+      </c>
+      <c r="K41">
+        <v>0.42431000000000002</v>
+      </c>
+      <c r="L41">
+        <v>0.95877000000000001</v>
+      </c>
+      <c r="M41">
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="N41">
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="O41">
+        <v>7.1299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>14280.5</v>
+      </c>
+      <c r="C42">
+        <v>0.56128999999999996</v>
+      </c>
+      <c r="D42">
+        <v>0.64958000000000005</v>
+      </c>
+      <c r="E42">
+        <v>0.97228999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.92650999999999994</v>
+      </c>
+      <c r="G42">
+        <v>0.88632</v>
+      </c>
+      <c r="H42">
+        <v>0.94001999999999997</v>
+      </c>
+      <c r="I42">
+        <v>0.80461000000000005</v>
+      </c>
+      <c r="J42">
+        <v>0.56142999999999998</v>
+      </c>
+      <c r="K42">
+        <v>0.39343</v>
+      </c>
+      <c r="L42">
+        <v>0.96191000000000004</v>
+      </c>
+      <c r="M42">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="N42">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="O42">
+        <v>6.8000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>14665.9</v>
+      </c>
+      <c r="C43">
+        <v>0.55732999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.65764999999999996</v>
+      </c>
+      <c r="E43">
+        <v>0.97187000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.95159000000000005</v>
+      </c>
+      <c r="G43">
+        <v>0.85468</v>
+      </c>
+      <c r="H43">
+        <v>0.93166000000000004</v>
+      </c>
+      <c r="I43">
+        <v>0.79879</v>
+      </c>
+      <c r="J43">
+        <v>0.56044000000000005</v>
+      </c>
+      <c r="K43">
+        <v>0.40528999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.95562999999999998</v>
+      </c>
+      <c r="M43">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="N43">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="O43">
+        <v>6.4700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>15052.5</v>
+      </c>
+      <c r="C44">
+        <v>0.56406999999999996</v>
+      </c>
+      <c r="D44">
+        <v>0.64588999999999996</v>
+      </c>
+      <c r="E44">
+        <v>0.97353999999999996</v>
+      </c>
+      <c r="F44">
+        <v>0.95003000000000004</v>
+      </c>
+      <c r="G44">
+        <v>0.86587000000000003</v>
+      </c>
+      <c r="H44">
+        <v>0.93911</v>
+      </c>
+      <c r="I44">
+        <v>0.79908999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0.57191000000000003</v>
+      </c>
+      <c r="K44">
+        <v>0.39287</v>
+      </c>
+      <c r="L44">
+        <v>0.96238999999999997</v>
+      </c>
+      <c r="M44">
+        <v>6.1399999999999996E-4</v>
+      </c>
+      <c r="N44">
+        <v>6.1399999999999996E-4</v>
+      </c>
+      <c r="O44">
+        <v>6.1399999999999996E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>15450.3</v>
+      </c>
+      <c r="C45">
+        <v>0.55139000000000005</v>
+      </c>
+      <c r="D45">
+        <v>0.62931000000000004</v>
+      </c>
+      <c r="E45">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.94791000000000003</v>
+      </c>
+      <c r="G45">
+        <v>0.88619000000000003</v>
+      </c>
+      <c r="H45">
+        <v>0.94549000000000005</v>
+      </c>
+      <c r="I45">
+        <v>0.80564999999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.56794</v>
+      </c>
+      <c r="K45">
+        <v>0.38185000000000002</v>
+      </c>
+      <c r="L45">
+        <v>0.95784000000000002</v>
+      </c>
+      <c r="M45">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="N45">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="O45">
+        <v>5.8100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>15840.6</v>
+      </c>
+      <c r="C46">
+        <v>0.55547000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.63646999999999998</v>
+      </c>
+      <c r="E46">
+        <v>0.96686000000000005</v>
+      </c>
+      <c r="F46">
+        <v>0.91403000000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.87814999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.94255</v>
+      </c>
+      <c r="I46">
+        <v>0.80827000000000004</v>
+      </c>
+      <c r="J46">
+        <v>0.55454000000000003</v>
+      </c>
+      <c r="K46">
+        <v>0.38027</v>
+      </c>
+      <c r="L46">
+        <v>0.95035999999999998</v>
+      </c>
+      <c r="M46">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="N46">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="O46">
+        <v>5.4799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>16241.6</v>
+      </c>
+      <c r="C47">
+        <v>0.54229000000000005</v>
+      </c>
+      <c r="D47">
+        <v>0.61675000000000002</v>
+      </c>
+      <c r="E47">
+        <v>0.96982999999999997</v>
+      </c>
+      <c r="F47">
+        <v>0.94662999999999997</v>
+      </c>
+      <c r="G47">
+        <v>0.85553999999999997</v>
+      </c>
+      <c r="H47">
+        <v>0.93332999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0.80108000000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.54930999999999996</v>
+      </c>
+      <c r="K47">
+        <v>0.37541999999999998</v>
+      </c>
+      <c r="L47">
+        <v>0.94523999999999997</v>
+      </c>
+      <c r="M47">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="N47">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="O47">
+        <v>5.1500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>16666</v>
+      </c>
+      <c r="C48">
+        <v>0.54583999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.61689000000000005</v>
+      </c>
+      <c r="E48">
+        <v>0.96299000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.91712000000000005</v>
+      </c>
+      <c r="G48">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="H48">
+        <v>0.93764000000000003</v>
+      </c>
+      <c r="I48">
+        <v>0.80615000000000003</v>
+      </c>
+      <c r="J48">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="K48">
+        <v>0.37652999999999998</v>
+      </c>
+      <c r="L48">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="M48">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="N48">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="O48">
+        <v>4.8200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>17069</v>
+      </c>
+      <c r="C49">
+        <v>0.53029000000000004</v>
+      </c>
+      <c r="D49">
+        <v>0.58801999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="F49">
+        <v>0.94740999999999997</v>
+      </c>
+      <c r="G49">
+        <v>0.89932999999999996</v>
+      </c>
+      <c r="H49">
+        <v>0.95159000000000005</v>
+      </c>
+      <c r="I49">
+        <v>0.81772999999999996</v>
+      </c>
+      <c r="J49">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="K49">
+        <v>0.35509000000000002</v>
+      </c>
+      <c r="L49">
+        <v>0.95523999999999998</v>
+      </c>
+      <c r="M49">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="N49">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="O49">
+        <v>4.4900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>17479.599999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.54010999999999998</v>
+      </c>
+      <c r="D50">
+        <v>0.58818000000000004</v>
+      </c>
+      <c r="E50">
+        <v>0.95837000000000006</v>
+      </c>
+      <c r="F50">
+        <v>0.95223999999999998</v>
+      </c>
+      <c r="G50">
+        <v>0.87994000000000006</v>
+      </c>
+      <c r="H50">
+        <v>0.95082</v>
+      </c>
+      <c r="I50">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="J50">
+        <v>0.55257999999999996</v>
+      </c>
+      <c r="K50">
+        <v>0.35965000000000003</v>
+      </c>
+      <c r="L50">
+        <v>0.94779000000000002</v>
+      </c>
+      <c r="M50">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="N50">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="O50">
+        <v>4.1599999999999997E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>17921</v>
+      </c>
+      <c r="C51">
+        <v>0.54003999999999996</v>
+      </c>
+      <c r="D51">
+        <v>0.57772000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.95962999999999998</v>
+      </c>
+      <c r="F51">
+        <v>0.96718000000000004</v>
+      </c>
+      <c r="G51">
+        <v>0.86390999999999996</v>
+      </c>
+      <c r="H51">
+        <v>0.94496000000000002</v>
+      </c>
+      <c r="I51">
+        <v>0.81223999999999996</v>
+      </c>
+      <c r="J51">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.36218</v>
+      </c>
+      <c r="L51">
+        <v>0.95018000000000002</v>
+      </c>
+      <c r="M51">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="N51">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="O51">
+        <v>3.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>18696.8</v>
+      </c>
+      <c r="C52">
+        <v>0.53456999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.38875999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="F52">
+        <v>0.91822999999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="H52">
+        <v>0.94801000000000002</v>
+      </c>
+      <c r="I52">
+        <v>0.81142000000000003</v>
+      </c>
+      <c r="J52">
+        <v>0.55344000000000004</v>
+      </c>
+      <c r="K52">
+        <v>0.37232999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.95096000000000003</v>
+      </c>
+      <c r="M52">
+        <v>3.5E-4</v>
+      </c>
+      <c r="N52">
+        <v>3.5E-4</v>
+      </c>
+      <c r="O52">
+        <v>3.5E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>19325</v>
+      </c>
+      <c r="C53">
+        <v>0.5302</v>
+      </c>
+      <c r="D53">
+        <v>0.38442999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="F53">
+        <v>0.95106000000000002</v>
+      </c>
+      <c r="G53">
+        <v>0.89092000000000005</v>
+      </c>
+      <c r="H53">
+        <v>0.95177999999999996</v>
+      </c>
+      <c r="I53">
+        <v>0.82067000000000001</v>
+      </c>
+      <c r="J53">
+        <v>0.55201999999999996</v>
+      </c>
+      <c r="K53">
+        <v>0.34771000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="M53">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="N53">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="O53">
+        <v>3.1700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>19870</v>
+      </c>
+      <c r="C54">
+        <v>0.5232</v>
+      </c>
+      <c r="D54">
+        <v>0.37031999999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.92030999999999996</v>
+      </c>
+      <c r="F54">
+        <v>0.95764000000000005</v>
+      </c>
+      <c r="G54">
+        <v>0.86897000000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.94915000000000005</v>
+      </c>
+      <c r="I54">
+        <v>0.81474000000000002</v>
+      </c>
+      <c r="J54">
+        <v>0.55847000000000002</v>
+      </c>
+      <c r="K54">
+        <v>0.34998000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.95099</v>
+      </c>
+      <c r="M54">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="N54">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="O54">
+        <v>2.8400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>20395.5</v>
+      </c>
+      <c r="C55">
+        <v>0.51920999999999995</v>
+      </c>
+      <c r="D55">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.92313999999999996</v>
+      </c>
+      <c r="F55">
+        <v>0.95011000000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.88715999999999995</v>
+      </c>
+      <c r="H55">
+        <v>0.95289000000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.82182999999999995</v>
+      </c>
+      <c r="J55">
+        <v>0.54578000000000004</v>
+      </c>
+      <c r="K55">
+        <v>0.34187000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.94674999999999998</v>
+      </c>
+      <c r="M55">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="N55">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="O55">
+        <v>2.5099999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>20843.7</v>
+      </c>
+      <c r="C56">
+        <v>0.51231000000000004</v>
+      </c>
+      <c r="D56">
+        <v>0.35304000000000002</v>
+      </c>
+      <c r="E56">
+        <v>0.91576000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.95018000000000002</v>
+      </c>
+      <c r="G56">
+        <v>0.90295000000000003</v>
+      </c>
+      <c r="H56">
+        <v>0.95487999999999995</v>
+      </c>
+      <c r="I56">
+        <v>0.82757999999999998</v>
+      </c>
+      <c r="J56">
+        <v>0.53761999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.33461000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0.94066000000000005</v>
+      </c>
+      <c r="M56">
+        <v>2.1800000000000001E-4</v>
+      </c>
+      <c r="N56">
+        <v>2.1800000000000001E-4</v>
+      </c>
+      <c r="O56">
+        <v>2.1800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>21307.4</v>
+      </c>
+      <c r="C57">
+        <v>0.50966999999999996</v>
+      </c>
+      <c r="D57">
+        <v>0.34066000000000002</v>
+      </c>
+      <c r="E57">
+        <v>0.91632000000000002</v>
+      </c>
+      <c r="F57">
+        <v>0.96821999999999997</v>
+      </c>
+      <c r="G57">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="H57">
+        <v>0.95077</v>
+      </c>
+      <c r="I57">
+        <v>0.81767000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="K57">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.94618999999999998</v>
+      </c>
+      <c r="M57">
+        <v>1.85E-4</v>
+      </c>
+      <c r="N57">
+        <v>1.85E-4</v>
+      </c>
+      <c r="O57">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>21742.9</v>
+      </c>
+      <c r="C58">
+        <v>0.49834000000000001</v>
+      </c>
+      <c r="D58">
+        <v>0.33152999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.91415000000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.94184000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.90273999999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.95208999999999999</v>
+      </c>
+      <c r="I58">
+        <v>0.82193000000000005</v>
+      </c>
+      <c r="J58">
+        <v>0.53622000000000003</v>
+      </c>
+      <c r="K58">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0.94237000000000004</v>
+      </c>
+      <c r="M58">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="N58">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="O58">
+        <v>1.5200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>22211</v>
+      </c>
+      <c r="C59">
+        <v>0.49570999999999998</v>
+      </c>
+      <c r="D59">
+        <v>0.32905000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.90583000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.94545000000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="H59">
+        <v>0.95606999999999998</v>
+      </c>
+      <c r="I59">
+        <v>0.82596999999999998</v>
+      </c>
+      <c r="J59">
+        <v>0.53961999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.31902000000000003</v>
+      </c>
+      <c r="L59">
+        <v>0.94193000000000005</v>
+      </c>
+      <c r="M59">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="N59">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="O59">
+        <v>1.1900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>22672.9</v>
+      </c>
+      <c r="C60">
+        <v>0.49328</v>
+      </c>
+      <c r="D60">
+        <v>0.32316</v>
+      </c>
+      <c r="E60">
+        <v>0.90290999999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.95504</v>
+      </c>
+      <c r="G60">
+        <v>0.89910999999999996</v>
+      </c>
+      <c r="H60">
+        <v>0.95774999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.82816000000000001</v>
+      </c>
+      <c r="J60">
+        <v>0.53478999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.31728000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="M60" s="2">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="N60" s="2">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>8.6000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>23112.7</v>
+      </c>
+      <c r="C61">
+        <v>0.48260999999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.32073000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.90471999999999997</v>
+      </c>
+      <c r="F61">
+        <v>0.95633999999999997</v>
+      </c>
+      <c r="G61">
+        <v>0.90325</v>
+      </c>
+      <c r="H61">
+        <v>0.95911999999999997</v>
+      </c>
+      <c r="I61">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="J61">
+        <v>0.52986</v>
+      </c>
+      <c r="K61">
+        <v>0.31235000000000002</v>
+      </c>
+      <c r="L61">
+        <v>0.93505000000000005</v>
+      </c>
+      <c r="M61" s="2">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="N61" s="2">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5.3000000000000001E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E799209-7C85-3545-B6CE-860421710311}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -1077,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31FA9DE-F6B7-DD40-B0A2-7427A74CFA99}">
   <dimension ref="A1"/>
   <sheetViews>
